--- a/Advertisement_REST_call_details_v3.xlsx
+++ b/Advertisement_REST_call_details_v3.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkarni_an\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -199,6 +194,9 @@
   </si>
   <si>
     <t>Returns all possible date conditions including EQUALS, BETWEEN, ON/AFTER, AFTER, BEFORE and ON/BEFORE</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -381,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,23 +623,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:L24"/>
+  <dimension ref="B5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -677,7 +675,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -699,7 +700,10 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -719,7 +723,10 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -737,7 +744,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -757,7 +764,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -781,7 +788,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -803,7 +810,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -823,7 +830,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -845,7 +852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -867,7 +874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>10</v>
       </c>
@@ -889,7 +896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>11</v>
       </c>
@@ -911,7 +918,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
       <c r="C18" s="3">
         <v>12</v>
       </c>
@@ -931,7 +941,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
       <c r="C19" s="3">
         <v>13</v>
       </c>
@@ -953,7 +966,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>14</v>
       </c>
@@ -973,7 +986,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>15</v>
       </c>
@@ -995,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>16</v>
       </c>
@@ -1017,7 +1030,10 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="3:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
       <c r="C23" s="3">
         <v>17</v>
       </c>
@@ -1037,7 +1053,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>18</v>
       </c>
@@ -1071,7 +1087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1083,7 +1099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
